--- a/datasets/Diccionario de Datos STEAM.xlsx
+++ b/datasets/Diccionario de Datos STEAM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Soy Henry\PI01\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Soy Henry\PI01\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664B57DB-58B9-48CA-9767-7A2778AFB0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898F0D8-2617-400F-9576-8C8DE74B1042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -364,6 +364,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -461,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,6 +506,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,10 +726,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1035,6 +1050,25 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>+B35-B36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>+B43/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/datasets/Diccionario de Datos STEAM.xlsx
+++ b/datasets/Diccionario de Datos STEAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Soy Henry\PI01\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898F0D8-2617-400F-9576-8C8DE74B1042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F30AB5A-73CC-4B62-A472-D671BA122171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>steam_games.gz.json</t>
   </si>
@@ -287,12 +287,18 @@
   <si>
     <t>recommend</t>
   </si>
+  <si>
+    <t>uso las palabras del review procesadas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="175" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -366,6 +372,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -377,6 +390,12 @@
       <color rgb="FFCCCCCC"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -471,10 +490,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,11 +526,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,10 +755,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -738,9 +767,10 @@
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="91.140625" customWidth="1"/>
     <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -750,7 +780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -761,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -772,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -785,8 +815,11 @@
       <c r="E4" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H4" s="24">
+        <v>130.63339999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -796,8 +829,12 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H5" s="25">
+        <f>+H4/60</f>
+        <v>2.1772233333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -808,7 +845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -818,8 +855,11 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H7" s="23">
+        <v>23717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -832,8 +872,12 @@
       <c r="E8" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H8" s="25">
+        <f>+H7/60</f>
+        <v>395.28333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -843,8 +887,12 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H9" s="25">
+        <f>+H8/24</f>
+        <v>16.47013888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -855,7 +903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -866,7 +914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
@@ -879,8 +927,11 @@
       <c r="E12" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H12" s="26">
+        <v>642773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -890,8 +941,12 @@
       <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f>+H12/60</f>
+        <v>10712.883333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
@@ -904,8 +959,12 @@
       <c r="E14" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f>+H13/24</f>
+        <v>446.3701388888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -919,14 +978,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -938,7 +997,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -949,7 +1008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -963,7 +1022,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
@@ -979,18 +1038,24 @@
       <c r="E21" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1070,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -1019,7 +1084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1031,7 +1096,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
@@ -1048,13 +1113,42 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="20">
+        <v>635295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f>+G29/60</f>
+        <v>10588.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f>1000/30</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="21">
+        <v>10373282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>+B35-B36</f>
         <v>0</v>
+      </c>
+      <c r="C36" s="21">
+        <v>815902096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="22">
+        <f>+C35/C36</f>
+        <v>1.271388080856211E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/datasets/Diccionario de Datos STEAM.xlsx
+++ b/datasets/Diccionario de Datos STEAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Soy Henry\PI01\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F30AB5A-73CC-4B62-A472-D671BA122171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E464167D-D5E6-49AB-B128-DB5ABBCD6A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>steam_games.gz.json</t>
   </si>
@@ -209,96 +209,12 @@
 'recommend': True,
 'review': "For a simple (it's actually not all that simple but it can be!) truck driving Simulator, it is quite a fun and relaxing game. Playing on simple (or easy?) its just the basic WASD keys for driving but (if you want) the game can be much harder and realistic with having to manually change gears, much harder turning, etc. And reversing in this game is a ♥♥♥♥♥, as I imagine it would be with an actual truck. Luckily, you don't have to reverse park it but you get extra points if you do cause it is bloody hard. But this is suprisingly a nice truck driving game and I had a bit of fun with it."},</t>
   </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>Función</t>
-  </si>
-  <si>
-    <t>userdata</t>
-  </si>
-  <si>
-    <t>developer - userdata</t>
-  </si>
-  <si>
-    <t>UserfForGenre</t>
-  </si>
-  <si>
-    <t>developer - userdata - UserfForGenre</t>
-  </si>
-  <si>
-    <t>userdata - UserfForGenre</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NLP:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Agragar "sentiment_analysis": 0 si el el review es malo, 1 si es netrual o no hay review escrita y 2 si es positivo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Se reemplaza la columna de review.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Userdata
-best_developer_year</t>
-    </r>
-  </si>
-  <si>
-    <t>developer - best_developer_year</t>
-  </si>
-  <si>
-    <t>developer - UserfForGenre - best_developer_year</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>uso las palabras del review procesadas</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -342,38 +258,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,12 +275,6 @@
       <color rgb="FFCCCCCC"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -418,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -478,45 +357,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,20 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,10 +603,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -766,21 +614,16 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="91.140625" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -802,24 +645,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="24">
-        <v>130.63339999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -829,12 +666,8 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="25">
-        <f>+H4/60</f>
-        <v>2.1772233333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -845,7 +678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -855,44 +688,30 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="23">
-        <v>23717</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="25">
-        <f>+H7/60</f>
-        <v>395.28333333333336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="25">
-        <f>+H8/24</f>
-        <v>16.47013888888889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -903,35 +722,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="26">
-        <v>642773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -941,51 +754,37 @@
       <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H13">
-        <f>+H12/60</f>
-        <v>10712.883333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14">
-        <f>+H13/24</f>
-        <v>446.3701388888889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -995,20 +794,19 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1018,44 +816,29 @@
       <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="153" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1065,26 +848,19 @@
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1094,66 +870,24 @@
       <c r="C26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="G29" s="20">
-        <v>635295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30">
-        <f>+G29/60</f>
-        <v>10588.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <f>1000/30</f>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="21">
-        <v>10373282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f>+B35-B36</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="21">
-        <v>815902096</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="22">
-        <f>+C35/C36</f>
-        <v>1.271388080856211E-2</v>
-      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1162,7 +896,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="20"/>
+      <c r="B47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
